--- a/oil_module_dev/backend/app/input.xlsx
+++ b/oil_module_dev/backend/app/input.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_coeff = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_coeff = 0</t>
   </si>
 </sst>
 </file>
@@ -278,10 +284,10 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A21:C28 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.14"/>
@@ -528,10 +534,10 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A21:C28 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.57"/>
   </cols>
@@ -579,11 +585,14 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="A21:C28 N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="2" style="0" width="10.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
@@ -1988,13 +1997,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A21:C28"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
@@ -3379,14 +3388,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
